--- a/inst/extdata/WSE review_v3 (MATRIX).xlsx
+++ b/inst/extdata/WSE review_v3 (MATRIX).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg.sharepoint.com/sites/SurveillanceSystemsDepartment/Shared Documents/Surveillance Portfolio Assistant (SPA)/Matrix/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg.sharepoint.com/sites/EIOSCoreTeamIII/Shared Documents/Data Science for PHI/SPA-data-science/SPA.Algorithm.Demo/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="484" documentId="13_ncr:1_{5C1E8AC6-622B-4FE9-B40F-FF267A45EBA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D9388B1-6F9C-43D0-BC68-14F83EB0CA75}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -471,7 +471,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1039,42 +1039,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M17" sqref="M17"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="60.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" customWidth="1"/>
+    <col min="14" max="14" width="12.5" customWidth="1"/>
+    <col min="15" max="15" width="14.83203125" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" customWidth="1"/>
     <col min="17" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" customWidth="1"/>
-    <col min="19" max="19" width="16.28515625" customWidth="1"/>
-    <col min="20" max="20" width="17.28515625" customWidth="1"/>
+    <col min="18" max="18" width="16.6640625" customWidth="1"/>
+    <col min="19" max="19" width="16.33203125" customWidth="1"/>
+    <col min="20" max="20" width="17.33203125" customWidth="1"/>
     <col min="21" max="21" width="14" customWidth="1"/>
     <col min="22" max="22" width="12" customWidth="1"/>
-    <col min="23" max="23" width="12.5703125" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" customWidth="1"/>
-    <col min="26" max="26" width="12.140625" customWidth="1"/>
+    <col min="23" max="23" width="12.5" customWidth="1"/>
+    <col min="24" max="24" width="14.5" customWidth="1"/>
+    <col min="25" max="25" width="14.33203125" customWidth="1"/>
+    <col min="26" max="26" width="12.1640625" customWidth="1"/>
     <col min="27" max="27" width="13" customWidth="1"/>
     <col min="28" max="28" width="12" customWidth="1"/>
-    <col min="29" max="29" width="10.5703125" customWidth="1"/>
+    <col min="29" max="29" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -1109,7 +1109,7 @@
       <c r="AB1" s="6"/>
       <c r="AC1" s="6"/>
     </row>
-    <row r="2" spans="1:30" ht="194.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="2" spans="1:30" ht="194.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="28.5" customHeight="1" thickTop="1">
+    <row r="3" spans="1:30" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -1228,7 +1228,7 @@
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
     </row>
-    <row r="4" spans="1:30" ht="15" customHeight="1">
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>32</v>
       </c>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="AD4" s="9"/>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
       <c r="B5" t="s">
         <v>38</v>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="AD5" s="9"/>
     </row>
-    <row r="6" spans="1:30" ht="16.5" customHeight="1">
+    <row r="6" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21"/>
       <c r="B6" t="s">
         <v>39</v>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="AD6" s="9"/>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="21"/>
       <c r="B7" t="s">
         <v>40</v>
@@ -1582,7 +1582,7 @@
       </c>
       <c r="AD7" s="9"/>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="21"/>
       <c r="B8" t="s">
         <v>41</v>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="AD8" s="9"/>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="21"/>
       <c r="B9" t="s">
         <v>42</v>
@@ -1758,7 +1758,7 @@
       </c>
       <c r="AD9" s="9"/>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="21"/>
       <c r="B10" t="s">
         <v>43</v>
@@ -1846,7 +1846,7 @@
       </c>
       <c r="AD10" s="9"/>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="21"/>
       <c r="B11" t="s">
         <v>44</v>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="AD11" s="9"/>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="21"/>
       <c r="B12" t="s">
         <v>45</v>
@@ -2022,7 +2022,7 @@
       </c>
       <c r="AD12" s="9"/>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" t="s">
         <v>46</v>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="AD13" s="9"/>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>47</v>
       </c>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="AD14" s="9"/>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="20"/>
       <c r="B15" t="s">
         <v>49</v>
@@ -2288,7 +2288,7 @@
       </c>
       <c r="AD15" s="9"/>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
       <c r="B16" t="s">
         <v>50</v>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="AD16" s="9"/>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
       <c r="B17" t="s">
         <v>51</v>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="AD17" s="9"/>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="20"/>
       <c r="B18" t="s">
         <v>52</v>
@@ -2552,7 +2552,7 @@
       </c>
       <c r="AD18" s="9"/>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="20"/>
       <c r="B19" t="s">
         <v>53</v>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="AD19" s="9"/>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="20"/>
       <c r="B20" t="s">
         <v>54</v>
@@ -2728,7 +2728,7 @@
       </c>
       <c r="AD20" s="9"/>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="20"/>
       <c r="B21" t="s">
         <v>55</v>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="AD21" s="9"/>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="20"/>
       <c r="B22" t="s">
         <v>56</v>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="AD22" s="9"/>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="20"/>
       <c r="B23" t="s">
         <v>57</v>
@@ -2992,7 +2992,7 @@
       </c>
       <c r="AD23" s="9"/>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="20"/>
       <c r="B24" t="s">
         <v>58</v>
@@ -3080,7 +3080,7 @@
       </c>
       <c r="AD24" s="9"/>
     </row>
-    <row r="25" spans="1:30" s="7" customFormat="1">
+    <row r="25" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="20"/>
       <c r="B25" t="s">
         <v>59</v>
@@ -3168,7 +3168,7 @@
       </c>
       <c r="AD25" s="11"/>
     </row>
-    <row r="26" spans="1:30" ht="15" customHeight="1">
+    <row r="26" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
         <v>60</v>
       </c>
@@ -3258,7 +3258,7 @@
       </c>
       <c r="AD26" s="9"/>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="22"/>
       <c r="B27" t="s">
         <v>62</v>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="AD27" s="9"/>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="22"/>
       <c r="B28" t="s">
         <v>63</v>
@@ -3434,7 +3434,7 @@
       </c>
       <c r="AD28" s="9"/>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="22"/>
       <c r="B29" t="s">
         <v>64</v>
@@ -3522,7 +3522,7 @@
       </c>
       <c r="AD29" s="9"/>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="22"/>
       <c r="B30" t="s">
         <v>65</v>
@@ -3610,7 +3610,7 @@
       </c>
       <c r="AD30" s="9"/>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="22"/>
       <c r="B31" t="s">
         <v>66</v>
@@ -3698,7 +3698,7 @@
       </c>
       <c r="AD31" s="9"/>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="22"/>
       <c r="B32" t="s">
         <v>67</v>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="AD32" s="9"/>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
       <c r="B33" t="s">
         <v>68</v>
@@ -3874,7 +3874,7 @@
       </c>
       <c r="AD33" s="9"/>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
       <c r="B34" t="s">
         <v>69</v>
@@ -3962,7 +3962,7 @@
       </c>
       <c r="AD34" s="9"/>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
       <c r="B35" t="s">
         <v>70</v>
@@ -4050,7 +4050,7 @@
       </c>
       <c r="AD35" s="9"/>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
         <v>71</v>
       </c>
@@ -4140,7 +4140,7 @@
       </c>
       <c r="AD36" s="9"/>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" s="19"/>
       <c r="B37" t="s">
         <v>73</v>
@@ -4228,7 +4228,7 @@
       </c>
       <c r="AD37" s="9"/>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" s="19"/>
       <c r="B38" t="s">
         <v>74</v>
@@ -4315,7 +4315,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" s="19"/>
       <c r="B39" t="s">
         <v>75</v>
@@ -4403,7 +4403,7 @@
       </c>
       <c r="AD39" s="9"/>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" s="16"/>
       <c r="B40" s="7" t="s">
         <v>76</v>
@@ -4491,7 +4491,7 @@
       </c>
       <c r="AD40" s="9"/>
     </row>
-    <row r="41" spans="1:30" ht="27" customHeight="1">
+    <row r="41" spans="1:30" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>77</v>
       </c>
@@ -4525,7 +4525,7 @@
       <c r="AC41" s="12"/>
       <c r="AD41" s="9"/>
     </row>
-    <row r="42" spans="1:30" ht="15" customHeight="1">
+    <row r="42" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="23" t="s">
         <v>78</v>
       </c>
@@ -4615,7 +4615,7 @@
       </c>
       <c r="AD42" s="9"/>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" s="23"/>
       <c r="B43" t="s">
         <v>80</v>
@@ -4703,7 +4703,7 @@
       </c>
       <c r="AD43" s="9"/>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" s="23"/>
       <c r="B44" t="s">
         <v>81</v>
@@ -4791,7 +4791,7 @@
       </c>
       <c r="AD44" s="9"/>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" s="23"/>
       <c r="B45" t="s">
         <v>82</v>
@@ -4879,7 +4879,7 @@
       </c>
       <c r="AD45" s="9"/>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" s="23"/>
       <c r="B46" t="s">
         <v>83</v>
@@ -4967,7 +4967,7 @@
       </c>
       <c r="AD46" s="9"/>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" s="23"/>
       <c r="B47" t="s">
         <v>84</v>
@@ -5055,7 +5055,7 @@
       </c>
       <c r="AD47" s="9"/>
     </row>
-    <row r="48" spans="1:30">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48" s="23"/>
       <c r="B48" t="s">
         <v>85</v>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="AD48" s="9"/>
     </row>
-    <row r="49" spans="1:30">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49" s="23"/>
       <c r="B49" t="s">
         <v>86</v>
@@ -5231,7 +5231,7 @@
       </c>
       <c r="AD49" s="9"/>
     </row>
-    <row r="50" spans="1:30">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
         <v>87</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:30">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" s="20"/>
       <c r="B51" t="s">
         <v>89</v>
@@ -5407,7 +5407,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:30">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" s="20"/>
       <c r="B52" t="s">
         <v>90</v>
@@ -5495,7 +5495,7 @@
       </c>
       <c r="AD52" s="9"/>
     </row>
-    <row r="53" spans="1:30">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53" s="20"/>
       <c r="B53" t="s">
         <v>91</v>
@@ -5583,7 +5583,7 @@
       </c>
       <c r="AD53" s="9"/>
     </row>
-    <row r="54" spans="1:30">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54" s="20"/>
       <c r="B54" t="s">
         <v>92</v>
@@ -5671,7 +5671,7 @@
       </c>
       <c r="AD54" s="9"/>
     </row>
-    <row r="55" spans="1:30">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A55" s="20"/>
       <c r="B55" t="s">
         <v>93</v>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="AD55" s="9"/>
     </row>
-    <row r="56" spans="1:30">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A56" s="20"/>
       <c r="B56" t="s">
         <v>94</v>
@@ -5847,7 +5847,7 @@
       </c>
       <c r="AD56" s="9"/>
     </row>
-    <row r="57" spans="1:30">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A57" s="20"/>
       <c r="B57" t="s">
         <v>95</v>
@@ -5935,7 +5935,7 @@
       </c>
       <c r="AD57" s="9"/>
     </row>
-    <row r="58" spans="1:30">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A58" s="20"/>
       <c r="B58" t="s">
         <v>96</v>
@@ -6023,7 +6023,7 @@
       </c>
       <c r="AD58" s="9"/>
     </row>
-    <row r="59" spans="1:30">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A59" s="20"/>
       <c r="B59" t="s">
         <v>97</v>
@@ -6111,7 +6111,7 @@
       </c>
       <c r="AD59" s="9"/>
     </row>
-    <row r="60" spans="1:30">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A60" s="20"/>
       <c r="B60" t="s">
         <v>98</v>
@@ -6199,7 +6199,7 @@
       </c>
       <c r="AD60" s="9"/>
     </row>
-    <row r="61" spans="1:30">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A61" s="15"/>
       <c r="B61" t="s">
         <v>99</v>
@@ -6287,7 +6287,7 @@
       </c>
       <c r="AD61" s="9"/>
     </row>
-    <row r="62" spans="1:30" ht="15" customHeight="1">
+    <row r="62" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="25" t="s">
         <v>100</v>
       </c>
@@ -6377,7 +6377,7 @@
       </c>
       <c r="AD62" s="9"/>
     </row>
-    <row r="63" spans="1:30">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A63" s="25"/>
       <c r="B63" t="s">
         <v>102</v>
@@ -6465,7 +6465,7 @@
       </c>
       <c r="AD63" s="9"/>
     </row>
-    <row r="64" spans="1:30">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A64" s="25"/>
       <c r="B64" t="s">
         <v>103</v>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="AD64" s="9"/>
     </row>
-    <row r="65" spans="1:30">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A65" s="25"/>
       <c r="B65" t="s">
         <v>104</v>
@@ -6641,7 +6641,7 @@
       </c>
       <c r="AD65" s="9"/>
     </row>
-    <row r="66" spans="1:30">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A66" s="25"/>
       <c r="B66" t="s">
         <v>105</v>
@@ -6729,7 +6729,7 @@
       </c>
       <c r="AD66" s="9"/>
     </row>
-    <row r="67" spans="1:30">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A67" s="25"/>
       <c r="B67" t="s">
         <v>106</v>
@@ -6817,7 +6817,7 @@
       </c>
       <c r="AD67" s="9"/>
     </row>
-    <row r="68" spans="1:30">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A68" s="25"/>
       <c r="B68" t="s">
         <v>107</v>
@@ -6905,7 +6905,7 @@
       </c>
       <c r="AD68" s="9"/>
     </row>
-    <row r="69" spans="1:30" ht="15" customHeight="1">
+    <row r="69" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="24" t="s">
         <v>108</v>
       </c>
@@ -6995,7 +6995,7 @@
       </c>
       <c r="AD69" s="9"/>
     </row>
-    <row r="70" spans="1:30">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A70" s="24"/>
       <c r="B70" t="s">
         <v>110</v>
@@ -7083,7 +7083,7 @@
       </c>
       <c r="AD70" s="9"/>
     </row>
-    <row r="71" spans="1:30">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A71" s="24"/>
       <c r="B71" t="s">
         <v>111</v>
@@ -7171,7 +7171,7 @@
       </c>
       <c r="AD71" s="9"/>
     </row>
-    <row r="72" spans="1:30">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A72" s="24"/>
       <c r="B72" t="s">
         <v>112</v>
@@ -7259,7 +7259,7 @@
       </c>
       <c r="AD72" s="9"/>
     </row>
-    <row r="73" spans="1:30">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A73" s="24"/>
       <c r="B73" s="8" t="s">
         <v>113</v>
@@ -7347,7 +7347,7 @@
       </c>
       <c r="AD73" s="9"/>
     </row>
-    <row r="74" spans="1:30">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A74" s="24"/>
       <c r="B74" s="8" t="s">
         <v>114</v>
@@ -7435,7 +7435,7 @@
       </c>
       <c r="AD74" s="9"/>
     </row>
-    <row r="75" spans="1:30">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A75" s="24"/>
       <c r="B75" s="8" t="s">
         <v>115</v>
@@ -7523,7 +7523,7 @@
       </c>
       <c r="AD75" s="9"/>
     </row>
-    <row r="76" spans="1:30">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A76" s="24"/>
       <c r="B76" t="s">
         <v>116</v>
@@ -7611,7 +7611,7 @@
       </c>
       <c r="AD76" s="9"/>
     </row>
-    <row r="77" spans="1:30" ht="28.5" customHeight="1">
+    <row r="77" spans="1:30" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>117</v>
       </c>
@@ -7645,7 +7645,7 @@
       <c r="AC77" s="12"/>
       <c r="AD77" s="9"/>
     </row>
-    <row r="78" spans="1:30" ht="15" customHeight="1">
+    <row r="78" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="18"/>
       <c r="B78" t="s">
         <v>118</v>
@@ -7733,7 +7733,7 @@
       </c>
       <c r="AD78" s="9"/>
     </row>
-    <row r="79" spans="1:30" ht="15" customHeight="1">
+    <row r="79" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="18"/>
       <c r="B79" t="s">
         <v>119</v>
@@ -7821,7 +7821,7 @@
       </c>
       <c r="AD79" s="9"/>
     </row>
-    <row r="80" spans="1:30">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A80" s="18"/>
       <c r="B80" t="s">
         <v>120</v>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="AD80" s="9"/>
     </row>
-    <row r="81" spans="1:31" ht="15.95" customHeight="1">
+    <row r="81" spans="1:31" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="18"/>
       <c r="B81" t="s">
         <v>121</v>
@@ -7997,7 +7997,7 @@
       </c>
       <c r="AD81" s="9"/>
     </row>
-    <row r="82" spans="1:31">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A82" s="18"/>
       <c r="B82" t="s">
         <v>122</v>
@@ -8085,7 +8085,7 @@
       </c>
       <c r="AD82" s="9"/>
     </row>
-    <row r="85" spans="1:31">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
@@ -8116,7 +8116,7 @@
       <c r="AD85" s="9"/>
       <c r="AE85" s="9"/>
     </row>
-    <row r="86" spans="1:31">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
       <c r="E86" s="9"/>
@@ -8147,7 +8147,7 @@
       <c r="AD86" s="9"/>
       <c r="AE86" s="9"/>
     </row>
-    <row r="87" spans="1:31">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
@@ -8178,7 +8178,7 @@
       <c r="AD87" s="9"/>
       <c r="AE87" s="9"/>
     </row>
-    <row r="88" spans="1:31">
+    <row r="88" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
@@ -8209,7 +8209,7 @@
       <c r="AD88" s="9"/>
       <c r="AE88" s="9"/>
     </row>
-    <row r="89" spans="1:31">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
@@ -8240,7 +8240,7 @@
       <c r="AD89" s="9"/>
       <c r="AE89" s="9"/>
     </row>
-    <row r="90" spans="1:31">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
@@ -8303,6 +8303,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004081EA5D144F46478FCA039F53F0651F" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="841797a002a7f028f046d162766fa60c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="97eadeb2-cd7a-457f-ac14-0ed0556ce061" xmlns:ns3="97c8a684-1c4b-4244-9323-fa8d251df7dc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="40f5d3b86e18104c2b03de3008c8b4e8" ns2:_="" ns3:_="">
     <xsd:import namespace="97eadeb2-cd7a-457f-ac14-0ed0556ce061"/>
@@ -8573,23 +8582,46 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D284FF7F-BC1E-46CE-8B3B-9D95F3B7814D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D284FF7F-BC1E-46CE-8B3B-9D95F3B7814D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="97eadeb2-cd7a-457f-ac14-0ed0556ce061"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="97c8a684-1c4b-4244-9323-fa8d251df7dc"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34B87EB6-8700-4498-A606-FE23E28983BB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB04841A-3389-4D06-B378-E2369E381CB9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB04841A-3389-4D06-B378-E2369E381CB9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34B87EB6-8700-4498-A606-FE23E28983BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="97eadeb2-cd7a-457f-ac14-0ed0556ce061"/>
+    <ds:schemaRef ds:uri="97c8a684-1c4b-4244-9323-fa8d251df7dc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>